--- a/inst/example_data/TR_example_data/Panobinostat_TPP-TR_config.xlsx
+++ b/inst/example_data/TR_example_data/Panobinostat_TPP-TR_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Experiment</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Condition</t>
   </si>
   <si>
-    <t>Replicate</t>
-  </si>
-  <si>
     <t>126</t>
   </si>
   <si>
@@ -77,6 +74,15 @@
   </si>
   <si>
     <t>&lt;copy path here&gt;</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Comparison1</t>
+  </si>
+  <si>
+    <t>Comparison2</t>
   </si>
 </sst>
 </file>
@@ -439,31 +445,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="72.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,216 +477,223 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>67</v>
+      </c>
+      <c r="F2" s="3">
+        <v>63</v>
+      </c>
+      <c r="G2" s="3">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3">
+        <v>56</v>
+      </c>
+      <c r="I2" s="3">
+        <v>53</v>
+      </c>
+      <c r="J2" s="3">
+        <v>50</v>
+      </c>
+      <c r="K2" s="3">
+        <v>47</v>
+      </c>
+      <c r="L2" s="3">
+        <v>44</v>
+      </c>
+      <c r="M2" s="3">
+        <v>41</v>
+      </c>
+      <c r="N2" s="3">
+        <v>37</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
         <v>67</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F3" s="3">
         <v>63</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G3" s="3">
         <v>59</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H3" s="3">
         <v>56</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I3" s="3">
         <v>53</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J3" s="3">
         <v>50</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K3" s="3">
         <v>47</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L3" s="3">
         <v>44</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M3" s="3">
         <v>41</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N3" s="3">
         <v>37</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>67</v>
+      </c>
+      <c r="F4" s="3">
+        <v>63</v>
+      </c>
+      <c r="G4" s="3">
+        <v>59</v>
+      </c>
+      <c r="H4" s="3">
+        <v>56</v>
+      </c>
+      <c r="I4" s="3">
+        <v>53</v>
+      </c>
+      <c r="J4" s="3">
+        <v>50</v>
+      </c>
+      <c r="K4" s="3">
+        <v>47</v>
+      </c>
+      <c r="L4" s="3">
+        <v>44</v>
+      </c>
+      <c r="M4" s="3">
+        <v>41</v>
+      </c>
+      <c r="N4" s="3">
+        <v>37</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
+    <row r="5" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
         <v>67</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F5" s="3">
         <v>63</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G5" s="3">
         <v>59</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H5" s="3">
         <v>56</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I5" s="3">
         <v>53</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J5" s="3">
         <v>50</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K5" s="3">
         <v>47</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L5" s="3">
         <v>44</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M5" s="3">
         <v>41</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N5" s="3">
         <v>37</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>67</v>
-      </c>
-      <c r="E4" s="3">
-        <v>63</v>
-      </c>
-      <c r="F4" s="3">
-        <v>59</v>
-      </c>
-      <c r="G4" s="3">
-        <v>56</v>
-      </c>
-      <c r="H4" s="3">
-        <v>53</v>
-      </c>
-      <c r="I4" s="3">
-        <v>50</v>
-      </c>
-      <c r="J4" s="3">
-        <v>47</v>
-      </c>
-      <c r="K4" s="3">
-        <v>44</v>
-      </c>
-      <c r="L4" s="3">
-        <v>41</v>
-      </c>
-      <c r="M4" s="3">
-        <v>37</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>67</v>
-      </c>
-      <c r="E5" s="3">
-        <v>63</v>
-      </c>
-      <c r="F5" s="3">
-        <v>59</v>
-      </c>
-      <c r="G5" s="3">
-        <v>56</v>
-      </c>
-      <c r="H5" s="3">
-        <v>53</v>
-      </c>
-      <c r="I5" s="3">
-        <v>50</v>
-      </c>
-      <c r="J5" s="3">
-        <v>47</v>
-      </c>
-      <c r="K5" s="3">
-        <v>44</v>
-      </c>
-      <c r="L5" s="3">
-        <v>41</v>
-      </c>
-      <c r="M5" s="3">
-        <v>37</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
